--- a/Datasets/Animals/Detection_Rates.xlsx
+++ b/Datasets/Animals/Detection_Rates.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -131,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
   <si>
     <t>Month</t>
   </si>
@@ -236,13 +237,70 @@
   </si>
   <si>
     <t>Within</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Detection Rates</t>
+  </si>
+  <si>
+    <t>STDEV.S(sample)/SQRT(COUNT(sample))</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>TUKEY RESULTS</t>
+  </si>
+  <si>
+    <t>February-April</t>
+  </si>
+  <si>
+    <t>February-August</t>
+  </si>
+  <si>
+    <t>July-February</t>
+  </si>
+  <si>
+    <t>June-February</t>
+  </si>
+  <si>
+    <t>May-February</t>
+  </si>
+  <si>
+    <t>November-February</t>
+  </si>
+  <si>
+    <t>September-February</t>
+  </si>
+  <si>
+    <t>October-February</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +343,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD0021B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -336,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -347,6 +419,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,6 +457,578 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Detection Rate Variation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$B$22:$P$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.88191710368819687</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5166114784235836</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2557151116012353</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9059326290271157</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.666666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.666666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7859388972001824</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.4037008503093267</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.6666666666666661</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.227180564089803</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.9876458418085132</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.2018504251546633</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.4801021696368508</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.5118845842842461</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.6055512754639896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$B$22:$P$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>0.88191710368819687</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5166114784235836</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.2557151116012353</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.9059326290271157</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.666666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.666666666666667</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3.7859388972001824</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.4037008503093267</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.6666666666666661</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6.227180564089803</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.9876458418085132</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1.2018504251546633</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>3.4801021696368508</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3.5118845842842461</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3.6055512754639896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$5:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$D$5:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-183E-4064-B962-15E5ED9B7682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1059166976"/>
+        <c:axId val="1059167392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1059166976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059167392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1059167392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Detections</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1059166976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -409,6 +1060,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -546,6 +1211,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -683,6 +1362,20 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$16</c:f>
@@ -1004,7 +1697,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1074,6 +1767,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1613,19 +2346,557 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1913,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2597,19 +3868,463 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.333333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E7" s="2">
+        <v>54.333333333333343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="E8" s="2">
+        <v>25.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.3333333333333357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="E10" s="2">
+        <v>65.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E12" s="2">
+        <v>17.333333333333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="E13" s="2">
+        <v>65.333333333333314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2">
+        <v>22.333333333333332</v>
+      </c>
+      <c r="E14" s="2">
+        <v>116.33333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>113</v>
+      </c>
+      <c r="D15" s="2">
+        <v>37.666666666666664</v>
+      </c>
+      <c r="E15" s="2">
+        <v>242.33333333333348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>74</v>
+      </c>
+      <c r="D16" s="2">
+        <v>24.666666666666668</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36.333333333333343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3678.3111111111089</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>262.73650793650779</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5.0808521087850664</v>
+      </c>
+      <c r="F24" s="6">
+        <v>9.3940083383920494E-5</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.0374204401455578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1551.3333333333335</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2">
+        <v>51.711111111111116</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5229.6444444444423</v>
+      </c>
+      <c r="C27" s="4">
+        <v>44</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2622,8 +4337,11 @@
       <c r="D1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2665,7 +4383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +4397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2693,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2707,7 +4425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2721,7 +4439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2735,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +4467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2763,7 +4481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2777,7 +4495,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2791,7 +4509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2805,7 +4523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +4537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -2830,6 +4548,310 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5</v>
+      </c>
+      <c r="H19" s="1">
+        <v>11</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1">
+        <v>10</v>
+      </c>
+      <c r="L19" s="1">
+        <v>23</v>
+      </c>
+      <c r="M19" s="1">
+        <v>27</v>
+      </c>
+      <c r="N19" s="1">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1">
+        <v>16</v>
+      </c>
+      <c r="P19" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>19</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>27</v>
+      </c>
+      <c r="K20" s="1">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1">
+        <v>36</v>
+      </c>
+      <c r="M20" s="1">
+        <v>24</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>27</v>
+      </c>
+      <c r="P20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>27</v>
+      </c>
+      <c r="L21" s="1">
+        <v>54</v>
+      </c>
+      <c r="M21" s="1">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>17</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8">
+        <f>_xlfn.STDEV.S(B19:B21)/SQRT(COUNT(B19:B21))</f>
+        <v>0.88191710368819687</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" ref="C22:P22" si="0">_xlfn.STDEV.S(C19:C21)/SQRT(COUNT(C19:C21))</f>
+        <v>2.5166114784235836</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2557151116012353</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9059326290271157</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.7859388972001824</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4037008503093267</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="0"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>6.227180564089803</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9876458418085132</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.2018504251546633</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.4801021696368508</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5118845842842461</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
         <v>4</v>
       </c>
     </row>

--- a/Datasets/Animals/Detection_Rates.xlsx
+++ b/Datasets/Animals/Detection_Rates.xlsx
@@ -463,7 +463,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr algn="ctr">
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -493,7 +493,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr algn="ctr">
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
@@ -844,10 +844,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -902,7 +899,15 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Total Detections</a:t>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Detections</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -941,7 +946,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2853,16 +2860,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3871,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4314,8 +4321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datasets/Animals/Detection_Rates.xlsx
+++ b/Datasets/Animals/Detection_Rates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
   <si>
     <t>Month</t>
   </si>
@@ -457,57 +457,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Detection Rate Variation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1773,6 +1723,1156 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6634-4AA9-8A3B-5FBAF61E2C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6634-4AA9-8A3B-5FBAF61E2C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>February </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>June</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6634-4AA9-8A3B-5FBAF61E2C57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2017440944"/>
+        <c:axId val="2017441776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017440944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017441776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2017441776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017440944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4643868633542027E-2"/>
+          <c:y val="0.10845026742868089"/>
+          <c:w val="0.90070629644475153"/>
+          <c:h val="0.73694415965737448"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>November</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B861-4B09-BBBC-25D52C2DC26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>December</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B861-4B09-BBBC-25D52C2DC26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B861-4B09-BBBC-25D52C2DC26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>February </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>NPR1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NPR2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NPR3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$39:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B861-4B09-BBBC-25D52C2DC26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2017442192"/>
+        <c:axId val="2017436368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017442192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017436368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2017436368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Total Detections</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017442192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1850,6 +2950,73 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2354,6 +3521,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2895,16 +5068,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>211792</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2918,6 +5091,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3191,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:G49"/>
     </sheetView>
   </sheetViews>
@@ -3878,8 +6111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A71" sqref="A42:L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4319,10 +6552,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4862,6 +7095,89 @@
         <v>4</v>
       </c>
     </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10</v>
+      </c>
+      <c r="C39" s="1">
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
+        <v>30</v>
+      </c>
+      <c r="E40" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>13</v>
+      </c>
+      <c r="D41" s="1">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8">
+        <f t="shared" ref="B42:E42" si="1">_xlfn.STDEV.S(B39:B41)/SQRT(COUNT(B39:B41))</f>
+        <v>2.4037008503093267</v>
+      </c>
+      <c r="C42" s="8">
+        <f t="shared" si="1"/>
+        <v>4.6666666666666661</v>
+      </c>
+      <c r="D42" s="8">
+        <f t="shared" si="1"/>
+        <v>6.227180564089803</v>
+      </c>
+      <c r="E42" s="8">
+        <f t="shared" si="1"/>
+        <v>8.9876458418085132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Datasets/Animals/Detection_Rates.xlsx
+++ b/Datasets/Animals/Detection_Rates.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>Month</t>
   </si>
@@ -291,6 +291,15 @@
   </si>
   <si>
     <t>October-February</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
 </sst>
 </file>
@@ -477,6 +486,676 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6D8F762-97E0-404D-BDFC-830C3BF2E625}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6A1DC9ED-2C58-48AC-8482-1A64009D93C4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{865EFDB1-63BB-499A-9D4E-7155EA05D967}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3DCA1F36-8673-42AF-B25F-7DEC4781529F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{04C67825-E09D-4513-A826-89343D3637AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.123123123123123E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C42D58C-CB7B-4776-ADD8-97848D4DC4D5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85C5CDAF-1541-4724-B3F9-0A15EA21C56D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3507EC25-EDB5-4D0F-8BDD-2C8963943087}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.8438438438438437E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4F0E688B-E121-48D4-86CE-9EF78DE2D2A5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1264589450144345E-16"/>
+                  <c:y val="-4.3243243243243287E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F917764C-70C0-4962-B570-FA039E228309}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1264589450144345E-16"/>
+                  <c:y val="-0.13213213213213212"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="144000" rIns="38100" bIns="144000" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{D64B5621-0BFA-4A61-848C-12E7C48D0777}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="144000" rIns="38100" bIns="144000" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1BE2FF2F-DBC6-4A53-9967-604EC008B536}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0DFADC8B-13F0-4585-822C-F9C73FBD71A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CC941E48-5B24-44EF-8109-99847EAD8CC8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2A271436-AF0E-4AAE-AC04-1195CC72A452}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-ZA"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-5C7E-438B-860A-8F5A9A5D2F97}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="360000" rIns="38100" bIns="144000" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -711,6 +1390,59 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet7!$F$5:$F$19</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="15"/>
+                  <c:pt idx="0">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>a</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>b</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ab</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-183E-4064-B962-15E5ED9B7682}"/>
             </c:ext>
@@ -718,7 +1450,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5033,15 +5765,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5424,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34:G49"/>
     </sheetView>
   </sheetViews>
@@ -6111,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A71" sqref="A42:L71"/>
+    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6121,7 +6853,7 @@
     <col min="6" max="6" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -6129,12 +6861,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>36</v>
       </c>
@@ -6151,7 +6883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6167,8 +6899,11 @@
       <c r="E5" s="2">
         <v>2.333333333333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -6184,8 +6919,11 @@
       <c r="E6" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -6201,8 +6939,11 @@
       <c r="E7" s="2">
         <v>54.333333333333343</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -6218,8 +6959,11 @@
       <c r="E8" s="2">
         <v>25.333333333333329</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -6235,8 +6979,11 @@
       <c r="E9" s="2">
         <v>8.3333333333333357</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -6252,8 +6999,11 @@
       <c r="E10" s="2">
         <v>65.333333333333343</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -6269,8 +7019,11 @@
       <c r="E11" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -6286,8 +7039,11 @@
       <c r="E12" s="2">
         <v>17.333333333333336</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -6303,8 +7059,11 @@
       <c r="E13" s="2">
         <v>65.333333333333314</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -6320,8 +7079,11 @@
       <c r="E14" s="2">
         <v>116.33333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -6337,8 +7099,11 @@
       <c r="E15" s="2">
         <v>242.33333333333348</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -6353,6 +7118,9 @@
       </c>
       <c r="E16" s="2">
         <v>4.3333333333333339</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6371,6 +7139,9 @@
       <c r="E17" s="2">
         <v>36.333333333333343</v>
       </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -6388,6 +7159,9 @@
       <c r="E18" s="2">
         <v>37</v>
       </c>
+      <c r="F18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
@@ -6404,6 +7178,9 @@
       </c>
       <c r="E19" s="4">
         <v>39</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6554,7 +7331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
